--- a/Data/Processed/Angiosperms/missing_powo_ipni/Lauraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Lauraceae.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -18219,7 +18219,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -29626,7 +29626,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -30539,7 +30539,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -30902,7 +30902,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -32310,7 +32310,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -33564,7 +33564,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -35907,7 +35907,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -35995,7 +35995,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -36578,7 +36578,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -39867,7 +39867,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -40175,7 +40175,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -43233,7 +43233,7 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -43651,7 +43651,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -43904,7 +43904,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -45147,7 +45147,7 @@
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -45235,7 +45235,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -45708,7 +45708,7 @@
       </c>
       <c r="G805" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -46071,7 +46071,7 @@
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H811" t="inlineStr">
@@ -46081,7 +46081,7 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 16: 305. 1920 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 16: 305. 1920</t>
         </is>
       </c>
       <c r="J811" t="b">
@@ -46149,7 +46149,7 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H812" t="inlineStr">
@@ -46159,7 +46159,7 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relat. Commiss. Linhas Telegr. Estratég. Matto Grosso Amazonas 5, Bot. pt. 10: 10, pl. 7. 1917 </t>
+          <t>Relat. Commiss. Linhas Telegr. Estratég. Matto Grosso Amazonas 5, Bot. pt. 10: 10, pl. 7. 1917</t>
         </is>
       </c>
       <c r="J812" t="b">
@@ -46227,7 +46227,7 @@
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H813" t="inlineStr">
@@ -46237,7 +46237,7 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jahrb. Königl. Bot. Gart. Berlin 5: 54. 1889 </t>
+          <t>Jahrb. Königl. Bot. Gart. Berlin 5: 54. 1889</t>
         </is>
       </c>
       <c r="J813" t="b">
@@ -46305,7 +46305,7 @@
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H814" t="inlineStr">
@@ -46315,7 +46315,7 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbeiten Königl. Bot. Gart. Breslau 1: 110. 1892 </t>
+          <t>Arbeiten Königl. Bot. Gart. Breslau 1: 110. 1892</t>
         </is>
       </c>
       <c r="J814" t="b">
@@ -46383,7 +46383,7 @@
       </c>
       <c r="G815" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H815" t="inlineStr">
@@ -46393,7 +46393,7 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 15: 57, fig. 2. 1966 </t>
+          <t>Mem. New York Bot. Gard. 15: 57, fig. 2. 1966</t>
         </is>
       </c>
       <c r="J815" t="b">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="G816" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H816" t="inlineStr">
@@ -46471,7 +46471,7 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jahrb. Königl. Bot. Gart. Berlin 5: 77. 1889 </t>
+          <t>Jahrb. Königl. Bot. Gart. Berlin 5: 77. 1889</t>
         </is>
       </c>
       <c r="J816" t="b">
@@ -46539,7 +46539,7 @@
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H817" t="inlineStr">
@@ -46549,7 +46549,7 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 600. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 600. 1913</t>
         </is>
       </c>
       <c r="J817" t="b">
@@ -46617,7 +46617,7 @@
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H818" t="inlineStr">
@@ -46627,7 +46627,7 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 31: 182. 1933 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 31: 182. 1933</t>
         </is>
       </c>
       <c r="J818" t="b">
@@ -46695,7 +46695,7 @@
       </c>
       <c r="G819" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H819" t="inlineStr">
@@ -46705,7 +46705,7 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbeiten Königl. Bot. Gart. Breslau 1: 124. 1892 </t>
+          <t>Arbeiten Königl. Bot. Gart. Breslau 1: 124. 1892</t>
         </is>
       </c>
       <c r="J819" t="b">
@@ -46773,7 +46773,7 @@
       </c>
       <c r="G820" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H820" t="inlineStr">
@@ -46783,7 +46783,7 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 15(1): 127. 1864 [May 1864] </t>
+          <t>Prodr. [A. P. de Candolle] 15(1): 127. 1864 [May 1864]</t>
         </is>
       </c>
       <c r="J820" t="b">
@@ -46851,7 +46851,7 @@
       </c>
       <c r="G821" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H821" t="inlineStr">
@@ -46861,7 +46861,7 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 15(1): 125. 1864 [May 1864] </t>
+          <t>Prodr. [A. P. de Candolle] 15(1): 125. 1864 [May 1864]</t>
         </is>
       </c>
       <c r="J821" t="b">
@@ -46929,7 +46929,7 @@
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H822" t="inlineStr">
@@ -46939,7 +46939,7 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 8(1): 42. 1833 </t>
+          <t>Linnaea 8(1): 42. 1833</t>
         </is>
       </c>
       <c r="J822" t="b">
@@ -47007,7 +47007,7 @@
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H823" t="inlineStr">
@@ -47017,7 +47017,7 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 22(7): 805. 1850 [May 1850] </t>
+          <t>Linnaea 22(7): 805. 1850 [May 1850]</t>
         </is>
       </c>
       <c r="J823" t="b">
@@ -47085,7 +47085,7 @@
       </c>
       <c r="G824" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H824" t="inlineStr">
@@ -47095,7 +47095,7 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 593. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 593. 1913</t>
         </is>
       </c>
       <c r="J824" t="b">
@@ -47163,7 +47163,7 @@
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H825" t="inlineStr">
@@ -47173,7 +47173,7 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbeiten Königl. Bot. Gart. Breslau 1: 119. 1892 </t>
+          <t>Arbeiten Königl. Bot. Gart. Breslau 1: 119. 1892</t>
         </is>
       </c>
       <c r="J825" t="b">
